--- a/data/trans_dic/P32E$eventos_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Habitat-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -862,7 +862,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$eventos_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.03018654307594361</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0850310564697085</v>
+        <v>0.08503105646970849</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.04339492528180008</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1431586815793089</v>
+        <v>0.1352173948308038</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3569034963065491</v>
+        <v>0.4214145170990272</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1512888076000294</v>
+        <v>0.1398901478878103</v>
       </c>
     </row>
     <row r="7">
@@ -652,10 +652,10 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.3608484852178305</v>
+        <v>0.3301220047169864</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1489861178755143</v>
+        <v>0.1544194527463145</v>
       </c>
     </row>
     <row r="10">
@@ -703,10 +703,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.7305996873382501</v>
+        <v>0.6804202922174357</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1467621656499085</v>
+        <v>0.1540154875247514</v>
       </c>
     </row>
     <row r="13">
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.02572904054479699</v>
+        <v>0.025729040544797</v>
       </c>
     </row>
     <row r="14">
@@ -753,11 +753,11 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1114503979162797</v>
+        <v>0.1135497560644878</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.09113743962728971</v>
+        <v>0.08594604414633324</v>
       </c>
     </row>
     <row r="16">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005588732106044193</v>
+        <v>0.005553815850899205</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02642293420346502</v>
+        <v>0.02354418414981079</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01477083633735992</v>
+        <v>0.01580313598720652</v>
       </c>
     </row>
     <row r="18">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04871288218933682</v>
+        <v>0.05432113028528174</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1823764713317461</v>
+        <v>0.1883524253602137</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07580308796015882</v>
+        <v>0.0745186549424373</v>
       </c>
     </row>
     <row r="19">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5008</v>
+        <v>4730</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3960</v>
+        <v>4676</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6971</v>
+        <v>6445</v>
       </c>
     </row>
     <row r="8">
@@ -1042,10 +1042,10 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>9091</v>
+        <v>8317</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9541</v>
+        <v>9889</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>4565</v>
+        <v>4251</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5340</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="16">
@@ -1177,11 +1177,11 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6410</v>
+        <v>6531</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>7215</v>
+        <v>6804</v>
       </c>
     </row>
     <row r="20">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1696</v>
+        <v>1511</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3333</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="23">
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>7866</v>
+        <v>8772</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>11706</v>
+        <v>12090</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>17106</v>
+        <v>16816</v>
       </c>
     </row>
     <row r="24">
